--- a/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1812.803126660054</v>
+        <v>10372.65132737054</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4622.8361210227</v>
+        <v>289260.5393052954</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2428.77771379855</v>
+        <v>80959.25712661834</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>10371.325902912</v>
+        <v>161710.6685703679</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>484922.2142001599</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>105953.7713982</v>
       </c>
       <c r="N2" t="n">
-        <v>1632.534049630441</v>
+        <v>70003.73489578845</v>
       </c>
       <c r="O2" t="n">
-        <v>2420.79197950242</v>
+        <v>69744.89343456978</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1358.894601537055</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3025.951641828148</v>
+        <v>31203.23858116339</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12889.56086624117</v>
+        <v>170658.5511254234</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>19330.19497335958</v>
+        <v>209080.6134235085</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>63518.11613148725</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>68536.72857011756</v>
       </c>
       <c r="N2" t="n">
-        <v>2773.846293838942</v>
+        <v>19285.19160463996</v>
       </c>
       <c r="O2" t="n">
-        <v>2340.403967713372</v>
+        <v>27033.1386905727</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1770.119671271456</v>
+        <v>27543.1755456332</v>
       </c>
       <c r="B2" t="n">
-        <v>4686.043832468928</v>
+        <v>22113.21643273498</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19385.71650516988</v>
+        <v>114655.4402706629</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>28665.83942972087</v>
+        <v>153866.0861464091</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>44638.22942194272</v>
       </c>
       <c r="N2" t="n">
-        <v>5043.434707998173</v>
+        <v>39676.88529639924</v>
       </c>
       <c r="O2" t="n">
-        <v>3834.906109154087</v>
+        <v>31311.04369977792</v>
       </c>
     </row>
   </sheetData>
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>1142.580190039942</v>
       </c>
       <c r="O2" t="n">
-        <v>247.0922343210123</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>775.978146433487</v>
+        <v>29588.33508286276</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>4347.543515635315</v>
       </c>
       <c r="O2" t="n">
-        <v>204.0473635070248</v>
+        <v>20429.76977394434</v>
       </c>
     </row>
   </sheetData>

--- a/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
@@ -517,10 +517,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10449.65868387311</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10240.68363560001</v>
+        <v>652.3935292841447</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>125630.3411625639</v>
+        <v>289624.7207921735</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>199860.7402548</v>
+        <v>264280.8358355595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>183081.44584818</v>
+        <v>269030.948845862</v>
       </c>
       <c r="M2" t="n">
-        <v>61928.56447206</v>
+        <v>116987.63646295</v>
       </c>
       <c r="N2" t="n">
-        <v>58820.03335867405</v>
+        <v>71604.66739785175</v>
       </c>
       <c r="O2" t="n">
-        <v>35940.28276363783</v>
+        <v>69620.67602513026</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45074.85903186452</v>
+        <v>1448.958715432552</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>35880.83082778667</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>285213.0769968456</v>
+        <v>164812.2831047642</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>399651.0066334675</v>
+        <v>209218.95419975</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>259276.3237872889</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>190615.346804993</v>
+        <v>61314.03182440259</v>
       </c>
       <c r="N2" t="n">
-        <v>127332.2428734756</v>
+        <v>19801.59487199476</v>
       </c>
       <c r="O2" t="n">
-        <v>50362.07153709661</v>
+        <v>10580.29689353687</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79724.59284155384</v>
+        <v>49430.84256000001</v>
       </c>
       <c r="B2" t="n">
-        <v>19579.10491204908</v>
+        <v>29803.23071747997</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>518297.5923966716</v>
+        <v>56470.04597280241</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>858098.9696433815</v>
+        <v>153491.5861848302</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>354392.195481735</v>
+        <v>59790.19096888593</v>
       </c>
       <c r="N2" t="n">
-        <v>89875.41759489635</v>
+        <v>22966.81720506174</v>
       </c>
       <c r="O2" t="n">
-        <v>191479.804994455</v>
+        <v>57371.12014516797</v>
       </c>
     </row>
   </sheetData>

--- a/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>652.3935292841447</v>
+        <v>31.95649908062548</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289624.7207921735</v>
+        <v>290289.2796736782</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>264280.8358355595</v>
+        <v>266703.2387598415</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>269030.948845862</v>
+        <v>260645.1078540457</v>
       </c>
       <c r="M2" t="n">
-        <v>116987.63646295</v>
+        <v>117617.5092488</v>
       </c>
       <c r="N2" t="n">
-        <v>71604.66739785175</v>
+        <v>71937.21288289552</v>
       </c>
       <c r="O2" t="n">
-        <v>69620.67602513026</v>
+        <v>71499.76484539866</v>
       </c>
     </row>
   </sheetData>
@@ -660,10 +660,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1448.958715432552</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>35880.83082778667</v>
+        <v>52084.29526967678</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>164812.2831047642</v>
+        <v>269023.3536636419</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209218.95419975</v>
+        <v>330004.1321038401</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -696,13 +696,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61314.03182440259</v>
+        <v>106735.0832568625</v>
       </c>
       <c r="N2" t="n">
-        <v>19801.59487199476</v>
+        <v>36015.51404675592</v>
       </c>
       <c r="O2" t="n">
-        <v>10580.29689353687</v>
+        <v>25698.16686044829</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>49430.84256000001</v>
+        <v>56692.15729593654</v>
       </c>
       <c r="B2" t="n">
-        <v>29803.23071747997</v>
+        <v>28736.2914608956</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>56470.04597280241</v>
+        <v>40227.11758927508</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153491.5861848302</v>
+        <v>150567.8529574802</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>59790.19096888593</v>
+        <v>58452.06939412496</v>
       </c>
       <c r="N2" t="n">
-        <v>22966.81720506174</v>
+        <v>23685.2630177212</v>
       </c>
       <c r="O2" t="n">
-        <v>57371.12014516797</v>
+        <v>60683.24652560872</v>
       </c>
     </row>
   </sheetData>

--- a/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
@@ -520,7 +520,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>10372.65132737054</v>
+        <v>9739.537847600008</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -529,7 +529,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>289260.5393052954</v>
+        <v>289823.7596598056</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -541,7 +541,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>161710.6685703679</v>
+        <v>161752.8135478</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>484922.2142001599</v>
+        <v>485245.29503538</v>
       </c>
       <c r="M2" t="n">
-        <v>105953.7713982</v>
+        <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70003.73489578845</v>
+        <v>70831.955579581</v>
       </c>
       <c r="O2" t="n">
-        <v>69744.89343456978</v>
+        <v>69610.4422391004</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>31203.23858116339</v>
+        <v>47386.06393082884</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>170658.5511254234</v>
+        <v>271236.7992183856</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>209080.6134235085</v>
+        <v>280426.171173861</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>63518.11613148725</v>
+        <v>184420.4799505123</v>
       </c>
       <c r="M2" t="n">
-        <v>68536.72857011756</v>
+        <v>113936.92264746</v>
       </c>
       <c r="N2" t="n">
-        <v>19285.19160463996</v>
+        <v>33931.8246116005</v>
       </c>
       <c r="O2" t="n">
-        <v>27033.1386905727</v>
+        <v>50485.47232467777</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>27543.1755456332</v>
+        <v>28619.61401238371</v>
       </c>
       <c r="B2" t="n">
-        <v>22113.21643273498</v>
+        <v>23143.29485244409</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>114655.4402706629</v>
+        <v>111916.8406725409</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>153866.0861464091</v>
+        <v>150385.2728707001</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>44638.22942194272</v>
+        <v>34803.41203795493</v>
       </c>
       <c r="N2" t="n">
-        <v>39676.88529639924</v>
+        <v>44938.11408779013</v>
       </c>
       <c r="O2" t="n">
-        <v>31311.04369977792</v>
+        <v>26938.31306104351</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1142.580190039942</v>
+        <v>1014.766490779938</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>29588.33508286276</v>
+        <v>34409.11717595647</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>4347.543515635315</v>
+        <v>5182.698656944208</v>
       </c>
       <c r="O2" t="n">
-        <v>20429.76977394434</v>
+        <v>22972.54525065906</v>
       </c>
     </row>
   </sheetData>

--- a/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>10449.65868387311</v>
+        <v>39031.81680257917</v>
       </c>
       <c r="B2" t="n">
-        <v>10240.68363560001</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>480246.8820317771</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>125630.3411625639</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>95787.21511093997</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792126</v>
       </c>
       <c r="I2" t="n">
-        <v>199860.7402548</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>183081.44584818</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>61928.56447206</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>58820.03335867405</v>
+        <v>24790.01698851407</v>
       </c>
       <c r="O2" t="n">
-        <v>35940.28276363783</v>
+        <v>19940.13531829328</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>45074.85903186452</v>
+        <v>38474.22754243403</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1449739.865999208</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>285213.0769968456</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>68781.60553734947</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>48766.68152149498</v>
       </c>
       <c r="I2" t="n">
-        <v>399651.0066334675</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>259276.3237872889</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>190615.346804993</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>127332.2428734756</v>
+        <v>61595.36923039819</v>
       </c>
       <c r="O2" t="n">
-        <v>50362.07153709661</v>
+        <v>37387.51309567106</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>79724.59284155384</v>
+        <v>192739.0887555194</v>
       </c>
       <c r="B2" t="n">
-        <v>19579.10491204908</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>993010.8231553362</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>518297.5923966716</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>8362.158153937327</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>41828.18095705038</v>
       </c>
       <c r="I2" t="n">
-        <v>858098.9696433815</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>354392.195481735</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>89875.41759489635</v>
+        <v>52911.02090087975</v>
       </c>
       <c r="O2" t="n">
-        <v>191479.804994455</v>
+        <v>39123.60766563744</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
@@ -446,67 +446,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -517,31 +517,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>0</v>
+        <v>39063.99109145206</v>
       </c>
       <c r="B2" t="n">
-        <v>1812.803126660054</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>483537.6274462014</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>4622.8361210227</v>
+        <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>94331.34471502228</v>
       </c>
       <c r="G2" t="n">
-        <v>2428.77771379855</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>25342.77928792104</v>
       </c>
       <c r="I2" t="n">
-        <v>10371.325902912</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -556,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1632.534049630441</v>
+        <v>23638.06126801545</v>
       </c>
       <c r="O2" t="n">
-        <v>2420.79197950242</v>
+        <v>19940.13531829346</v>
       </c>
     </row>
   </sheetData>
@@ -589,67 +589,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -660,31 +660,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1358.894601537055</v>
+        <v>30846.52922536713</v>
       </c>
       <c r="B2" t="n">
-        <v>3025.951641828148</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1495599.874611417</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>12889.56086624117</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>70193.79982138964</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>56602.42752520426</v>
       </c>
       <c r="I2" t="n">
-        <v>19330.19497335958</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>2773.846293838942</v>
+        <v>51649.16401227913</v>
       </c>
       <c r="O2" t="n">
-        <v>2340.403967713372</v>
+        <v>42574.77934331147</v>
       </c>
     </row>
   </sheetData>
@@ -732,67 +732,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -803,31 +803,31 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>1770.119671271456</v>
+        <v>242452.4252219552</v>
       </c>
       <c r="B2" t="n">
-        <v>4686.043832468928</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>943335.270081223</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>19385.71650516988</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>1425.925979620855</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>39373.98526588717</v>
       </c>
       <c r="I2" t="n">
-        <v>28665.83942972087</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5043.434707998173</v>
+        <v>53308.16490721726</v>
       </c>
       <c r="O2" t="n">
-        <v>3834.906109154087</v>
+        <v>30023.09380555204</v>
       </c>
     </row>
   </sheetData>
@@ -875,67 +875,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -985,10 +985,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>11578.49752443177</v>
       </c>
       <c r="O2" t="n">
-        <v>247.0922343210123</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1018,67 +1018,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">
@@ -1089,10 +1089,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>775.978146433487</v>
+        <v>76705.58894163162</v>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>1930.947398408091</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>28147.3462746636</v>
       </c>
       <c r="O2" t="n">
-        <v>204.0473635070248</v>
+        <v>8312.661449003012</v>
       </c>
     </row>
   </sheetData>
@@ -1161,67 +1161,67 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>gb</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>hp</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>st</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>wi</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>gt</t>
-        </is>
-      </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dgt</t>
+          <t>ieh</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>ieh</t>
+          <t>chp</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>chp</t>
+          <t>ac</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>ac</t>
+          <t>ab_ct</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>ab_ct</t>
+          <t>ab_hp</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>ab_hp</t>
+          <t>cp_ct</t>
         </is>
       </c>
       <c r="L1" s="1" t="inlineStr">
         <is>
-          <t>cp_ct</t>
+          <t>cp_hp</t>
         </is>
       </c>
       <c r="M1" s="1" t="inlineStr">
         <is>
-          <t>cp_hp</t>
+          <t>ttes</t>
         </is>
       </c>
       <c r="N1" s="1" t="inlineStr">
         <is>
-          <t>ttes</t>
+          <t>btes</t>
         </is>
       </c>
       <c r="O1" s="1" t="inlineStr">

--- a/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
@@ -517,7 +517,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>39031.81680257917</v>
+        <v>39031.8168025792</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -532,7 +532,7 @@
         <v>2897240.114301849</v>
       </c>
       <c r="F2" t="n">
-        <v>95787.21511093997</v>
+        <v>95787.21511094</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -660,7 +660,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>38474.22754243403</v>
+        <v>38474.227542434</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -675,7 +675,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>68781.60553734947</v>
+        <v>68781.60553734945</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -699,7 +699,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>61595.36923039819</v>
+        <v>61595.36923039758</v>
       </c>
       <c r="O2" t="n">
         <v>37387.51309567106</v>
@@ -803,13 +803,13 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>192739.0887555194</v>
+        <v>192739.0887555322</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>993010.8231553362</v>
+        <v>993010.8231553335</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -818,13 +818,13 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8362.158153937327</v>
+        <v>8362.158153921904</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>41828.18095705038</v>
+        <v>41828.18095705013</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>52911.02090087975</v>
+        <v>52911.02090087624</v>
       </c>
       <c r="O2" t="n">
-        <v>39123.60766563744</v>
+        <v>39123.6076656376</v>
       </c>
     </row>
   </sheetData>

--- a/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
@@ -529,19 +529,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>290289.2796736782</v>
+        <v>290289.2796736761</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>80959.25712661834</v>
+        <v>80959.25712662954</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>266703.2387598415</v>
+        <v>266703.2387598364</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -550,16 +550,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>260645.1078540457</v>
+        <v>260645.1078540564</v>
       </c>
       <c r="M2" t="n">
         <v>117617.5092488</v>
       </c>
       <c r="N2" t="n">
-        <v>71937.21288289552</v>
+        <v>71937.21288289223</v>
       </c>
       <c r="O2" t="n">
-        <v>71499.76484539866</v>
+        <v>71499.76484539855</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>52084.29526967678</v>
+        <v>52084.29526967669</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -672,7 +672,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>269023.3536636419</v>
+        <v>269023.3536636411</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>330004.1321038401</v>
+        <v>330004.1321038399</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -699,10 +699,10 @@
         <v>106735.0832568625</v>
       </c>
       <c r="N2" t="n">
-        <v>36015.51404675592</v>
+        <v>36015.51404675542</v>
       </c>
       <c r="O2" t="n">
-        <v>25698.16686044829</v>
+        <v>25698.16686044836</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>56692.15729593654</v>
+        <v>56692.15729593898</v>
       </c>
       <c r="B2" t="n">
-        <v>28736.2914608956</v>
+        <v>28736.291460896</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>40227.11758927508</v>
+        <v>40227.11758927437</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150567.8529574802</v>
+        <v>150567.8529574698</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -842,10 +842,10 @@
         <v>58452.06939412496</v>
       </c>
       <c r="N2" t="n">
-        <v>23685.2630177212</v>
+        <v>23685.26301771859</v>
       </c>
       <c r="O2" t="n">
-        <v>60683.24652560872</v>
+        <v>60683.24652561668</v>
       </c>
     </row>
   </sheetData>

--- a/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
+++ b/results/[8_natural_gas_friendly]_#_inv_cost.xlsx
@@ -556,10 +556,10 @@
         <v>105905.87968015</v>
       </c>
       <c r="N2" t="n">
-        <v>70831.955579581</v>
+        <v>70831.95557958097</v>
       </c>
       <c r="O2" t="n">
-        <v>69610.4422391004</v>
+        <v>69610.44223910036</v>
       </c>
     </row>
   </sheetData>
@@ -663,7 +663,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>47386.06393082884</v>
+        <v>47338.61932520662</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>280426.171173861</v>
+        <v>283167.7766510943</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -693,16 +693,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>184420.4799505123</v>
+        <v>178095.3756971828</v>
       </c>
       <c r="M2" t="n">
-        <v>113936.92264746</v>
+        <v>114008.3253427963</v>
       </c>
       <c r="N2" t="n">
-        <v>33931.8246116005</v>
+        <v>33931.82461160053</v>
       </c>
       <c r="O2" t="n">
-        <v>50485.47232467777</v>
+        <v>50657.26889981552</v>
       </c>
     </row>
   </sheetData>
@@ -803,10 +803,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>28619.61401238371</v>
+        <v>29273.60317916481</v>
       </c>
       <c r="B2" t="n">
-        <v>23143.29485244409</v>
+        <v>22330.72247668595</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -815,7 +815,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>111916.8406725409</v>
+        <v>110739.3594843864</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>150385.2728707001</v>
+        <v>150386.9441391908</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -839,13 +839,13 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>34803.41203795493</v>
+        <v>35556.98862372932</v>
       </c>
       <c r="N2" t="n">
-        <v>44938.11408779013</v>
+        <v>44813.41193308897</v>
       </c>
       <c r="O2" t="n">
-        <v>26938.31306104351</v>
+        <v>26775.55841092002</v>
       </c>
     </row>
   </sheetData>
@@ -985,7 +985,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>1014.766490779938</v>
+        <v>1041.156112142704</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -1089,7 +1089,7 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>34409.11717595647</v>
+        <v>34256.25291363284</v>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -1128,10 +1128,10 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>5182.698656944208</v>
+        <v>5271.89502409355</v>
       </c>
       <c r="O2" t="n">
-        <v>22972.54525065906</v>
+        <v>22972.54525065989</v>
       </c>
     </row>
   </sheetData>
